--- a/lineIn.xlsx
+++ b/lineIn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GITHUB_PRIVATE_CODES\ForwardBackwardSweep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3A440C-F070-425B-A9B1-30F9D43BDB8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6106D09-5797-42C6-8CA5-A53F41E8504F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{4FDC1957-8DB4-4927-B139-8B72076C7FCA}"/>
+    <workbookView xWindow="28680" yWindow="1695" windowWidth="29040" windowHeight="16440" xr2:uid="{4FDC1957-8DB4-4927-B139-8B72076C7FCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -403,7 +403,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,7 +671,7 @@
         <v>0.16400000000000001</v>
       </c>
       <c r="D19">
-        <v>1565</v>
+        <v>1.5649999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
